--- a/Relatorios_Checklist/relatorio_cumulativo_30_08_2025.xlsx
+++ b/Relatorios_Checklist/relatorio_cumulativo_30_08_2025.xlsx
@@ -85,7 +85,7 @@
     <t>Tempos</t>
   </si>
   <si>
-    <t>Crescimento cumulativo: 208 -&gt; 212</t>
+    <t>Crescimento cumulativo: 260 -&gt; 265</t>
   </si>
   <si>
     <t>OK</t>
@@ -496,10 +496,10 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F2">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -519,10 +519,10 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -542,10 +542,10 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F4">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -565,10 +565,10 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F5">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -588,10 +588,10 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F6">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -611,10 +611,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F7">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F8">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F9">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -680,10 +680,10 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F10">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F11">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -726,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F12">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -749,10 +749,10 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F13">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -772,10 +772,10 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F14">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -795,10 +795,10 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F15">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -818,10 +818,10 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F16">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -841,10 +841,10 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F17">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -864,10 +864,10 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F18">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -887,10 +887,10 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F19">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -910,10 +910,10 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F20">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -933,10 +933,10 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F21">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -956,10 +956,10 @@
         <v>23</v>
       </c>
       <c r="E22">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F22">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -979,10 +979,10 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F23">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
@@ -1002,10 +1002,10 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F24">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -1025,10 +1025,10 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F25">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -1048,10 +1048,10 @@
         <v>23</v>
       </c>
       <c r="E26">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F26">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -1071,10 +1071,10 @@
         <v>23</v>
       </c>
       <c r="E27">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F27">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
@@ -1094,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="E28">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F28">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
@@ -1117,10 +1117,10 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F29">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -1140,10 +1140,10 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F30">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -1163,10 +1163,10 @@
         <v>23</v>
       </c>
       <c r="E31">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F31">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
@@ -1186,10 +1186,10 @@
         <v>23</v>
       </c>
       <c r="E32">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F32">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
@@ -1209,10 +1209,10 @@
         <v>23</v>
       </c>
       <c r="E33">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F33">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -1232,10 +1232,10 @@
         <v>23</v>
       </c>
       <c r="E34">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F34">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
@@ -1255,10 +1255,10 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F35">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
@@ -1278,10 +1278,10 @@
         <v>23</v>
       </c>
       <c r="E36">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F36">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
         <v>24</v>
@@ -1301,10 +1301,10 @@
         <v>23</v>
       </c>
       <c r="E37">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F37">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
         <v>24</v>
